--- a/exoprt example.xlsx
+++ b/exoprt example.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssinfis-my.sharepoint.com/personal/jan_kozohorsky_infis_cz/Documents/osobní/projects/kozooh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55C5B14-E5AB-4E71-977C-545D1494F586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C55C5B14-E5AB-4E71-977C-545D1494F586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47F34B6C-BA1E-495B-B7F8-570AF6402B51}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A72C74D1-4D44-48E3-BBD9-EB51E7484FB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A72C74D1-4D44-48E3-BBD9-EB51E7484FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,7 +138,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,18 +452,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB0FB9D-8B89-4AE9-BEE1-182671AB9408}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -473,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +483,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,7 +494,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -506,7 +505,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,7 +516,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -532,4 +531,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D934F5-C56E-4005-B910-D0EA2BBEB3A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>